--- a/data/minfin/3_questions.xlsx
+++ b/data/minfin/3_questions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>question</t>
   </si>
@@ -169,13 +169,6 @@
   </si>
   <si>
     <t>Актуальная информация по исполнению государственных программ содержится в сети «Интернет» на информационном ресурсе «Портал государственных программ», на сайте Правительства России и на Едином портале бюджетной системы «Электронный бюджет»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Актуальная информация по исполнению государственных программ содержится на следующих информационных ресурсах в сети «Интернет»:
-- «Портал государственных программ» (http://programs.gov.ru);
-- Раздел «Государственные программы» на сайте Правительства России (http://government.ru/programs/);
-- Раздел «Расходы» - «Государственные программы» на Едином портале бюджетной системы «Электронный бюджет» (http://budget.gov.ru).
-</t>
   </si>
   <si>
     <t>Портал государственных программ; Информация о государственных программах на сайте Правительства России; Информация о государственных программах на Едином портале бюджетной системы «Электронный бюджет»</t>
@@ -345,12 +338,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -365,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -392,6 +391,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -715,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -875,7 +877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" ht="189" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -885,17 +887,15 @@
       <c r="C8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="D8" s="10"/>
       <c r="E8" s="8" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="378" customHeight="1" x14ac:dyDescent="0.25">
@@ -903,22 +903,22 @@
         <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
@@ -926,16 +926,16 @@
         <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
@@ -943,16 +943,16 @@
         <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
@@ -960,71 +960,71 @@
         <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="126" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/3_questions.xlsx
+++ b/data/minfin/3_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t>question</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Государственная программа – это документ стратегического планирования, содержащий комплекс планируемых мероприятий и инструментов государственной политики, обеспечивающих достижение приоритетов и целей государственной политики в сфере социально-экономического развития и обеспечения национальной безопасности</t>
   </si>
   <si>
-    <t xml:space="preserve">Государственная программа – это документ стратегического планирования, содержащий комплекс планируемых мероприятий, взаимоувязанных по задачам, срокам осуществления, исполнителям и ресурсам, и инструментамов государственной политики, обеспечивающих в рамках реализации ключевых государственных функций достижение приоритетов и целей государственной политики в сфере социально-экономического развития и обеспечения национальной безопасности.
-Государственная программа может включать в себя подпрограммы, раскрывающие определенные направления развития или проблемную сферу.
-Государственная программа включает: титульный лист, паспорт государственной программы, паспорта подпрограмм, паспорта федеральных целевых программ, текстовую часть, приложения.
-</t>
-  </si>
-  <si>
     <t>Что, Такое, Государственная программа, Госпрограмма</t>
   </si>
   <si>
@@ -139,12 +133,6 @@
   </si>
   <si>
     <t>Государственные программы Российской Федерации включают  в себя подпрограммы, содержащие, ведомственные целевые программы и основные мероприятия органов государственной власти Российской Федерации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Государственная программа включает федеральные целевые программы (в случае их наличия), реализуемые в соответствующей сфере социально - экономического развития или обеспечения национальной безопасности Российской Федерации, и подпрограммы, представляющие собой взаимоувязанные по целям, срокам и ресурсам мероприятия, выделенные исходя из масштаба и сложности задач, решаемых в рамках государственной программы, содержащие ведомственные целевые программы и основные мероприятия.
-Федеральная целевая программа может быть включена в состав только одной государственной программы. Допускается аналитическое (справочное) отражение в государственной программе: частей федеральных целевых программ; федеральных целевых программ, реализация которых направлена на достижение целей иных государственных программ.
-Государственная программа включает: титульный лист, паспорт государственной программы, паспорта подпрограмм, паспорта федеральных целевых программ, текстовую часть, приложения.
-</t>
   </si>
   <si>
     <t>3.7</t>
@@ -302,12 +290,43 @@
   <si>
     <t>Dinamika_Suverennie fondi.pdf</t>
   </si>
+  <si>
+    <t>Актуальная информация по исполнению государственных программ содержится на следующих информационных ресурсах в сети «Интернет»:
+- «Портал государственных программ»;
+- Раздел «Государственные программы» на сайте Правительства России;
+- Раздел «Расходы» - «Государственные программы» на Едином портале бюджетной системы «Электронный бюджет»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Государственная программа – это документ стратегического планирования, содержащий комплекс планируемых мероприятий, взаимоувязанных по задачам, срокам осуществления, исполнителям и ресурсам, и инструментамам государственной политики, обеспечивающих в рамках реализации ключевых государственных функций достижение приоритетов и целей государственной политики в сфере социально-экономического развития и обеспечения национальной безопасности.
+Государственная программа включает в себя подпрограммы, направленные на достижение целей и решения задач государственной программы.
+Государственная программа включает: паспорт государственной программы, паспорта подпрограмм, паспорта федеральных целевых программ, текстовую часть, приложения.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Государственные программы субъекта Российской Федерации, муниципальные программы утверждаются соответственно высшим исполнительным органом государственной власти субъекта Российской Федерации, местной администрацией муниципального образования.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Государственная программа включает федеральные целевые программы (в случае их наличия), реализуемые в соответствующей сфере социально - экономического развития или обеспечения национальной безопасности Российской Федерации, и подпрограммы, представляющие собой взаимоувязанные по целям, срокам и ресурсам мероприятия, выделенные исходя из масштаба и сложности задач, решаемых в рамках государственной программы, содержащие ведомственные целевые программы и основные мероприятия.
+Федеральная целевая программа может быть включена в состав только одной государственной программы. Допускается аналитическое (справочное) отражение в государственной программе: частей федеральных целевых программ; федеральных целевых программ, реализация которых направлена на достижение целей иных государственных программ.
+Государственная программа содержит:
+- паспорт госпрограммы, паспорта подпрограмм, паспорта федеральных целевых программ (в случае наличия);
+- приоритеты и цели государственной политики и общие требования к политике субъектов Российской Федерации в соответствующей сфере;
+- перечень и характеристики основных мероприятий государственной программы и ведомственных целевых программ;
+- основные меры правового регулирования в соответствующей сфере;
+- перечень и сведения о целевых индикаторах и показателях государственной программы;
+- информацию по финансовому обеспечению государственной программы;
+- информацию по финансовому обеспечению государственной программы (в случае наличия);
+- правила предоставления субсидий из федерального бюджета бюджетам субъектов Российской Федерации в рамках государственной программы (в случае наличия);
+- план реализации государственной программы на очередной финансовый год и плановый период.
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,7 +366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -391,6 +410,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -707,27 +729,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="48" style="3" customWidth="1"/>
-    <col min="4" max="4" width="53.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="101.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="78.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="68.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -739,7 +761,7 @@
     <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -777,7 +799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="204.75">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -787,244 +809,253 @@
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="141.75">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="94.5">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="78.75">
+      <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="78.75">
+      <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="126" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="409.5">
+      <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="126">
+      <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="141.75">
+      <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="126">
+      <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="378" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="236.25">
+      <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="63">
+      <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:12" ht="94.5">
+      <c r="A13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="126" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="H13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:12" ht="315">
+      <c r="A14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="F14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/3_questions.xlsx
+++ b/data/minfin/3_questions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>question</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Государственные программы разрабатываются для достижения приоритетов и целей социально-экономического развития и обеспечения национальной безопасности Российской Федерации</t>
   </si>
   <si>
-    <t>Государственные программы разрабатываются федеральными органами исполнительной власти для достижения приоритетов и целей социально-экономического развития и обеспечения национальной безопасности Российской Федерации, определенных в стратегии социально-экономического развития, отраслевых документах стратегического планирования, стратегии пространственного развития и основных направлениях деятельности Правительства Российской Федерации</t>
-  </si>
-  <si>
     <t>Зачем, Для чего, Нужны, Необходимы, Государственная программа, Госпрограмма</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Сколько всего государственных программ утверждено / предусмотрено к утверждению в настоящий момент?</t>
   </si>
   <si>
-    <t>В настоящий момент предусмотрено к утверждению 43 государственные программы, из них 40 государственных программ утверждено</t>
-  </si>
-  <si>
     <t>Сколько, Государственная программа, Госпрограмма, Утверждено, Предусмотрено к утверждению</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>Государственные программы Российской Федерации разрабатываются на период, определяемый Правительством Российской Федерации</t>
   </si>
   <si>
-    <t>Согласно пункту 2 статьи 28 Федерального закона от 28 июня 2014 г. N 172-ФЗ «О стратегическом планировании в Российской Федерации» государственные программы Российской Федерации разрабатываются на период, определяемый Правительством Российской Федерации</t>
-  </si>
-  <si>
     <t>3.6</t>
   </si>
   <si>
@@ -166,15 +157,6 @@
   </si>
   <si>
     <t>В каких государственных программах предусмотрены самые большие объемы бюджетных ассигнований?</t>
-  </si>
-  <si>
-    <t>Наибольший объем бюджетных ассигнований предусмотрен в 2017 году в рамках государственной программы «Социальная поддержка граждан» - 1330 млрд. рублей</t>
-  </si>
-  <si>
-    <t>Государственные программы с наибольшим объемом бюджетных ассигнований:
-- «Социальная поддержка граждан» (в 2017 году - 1330,4 млрд. рублей);
-- «Управление государственными финансами и регулирование финансовых рынков» (в 2017 году - 1217,1 млрд. рублей);
-- «Развитие федеративных отношений и создание условий для эффективного и ответственного управления региональными и муниципальными финансами» (в 2017 году - 739,7 млрд. рублей)</t>
   </si>
   <si>
     <t>Государственная программа, Госпрограмма, самый, большой, наибольший, объем, бюджетные ассигнования</t>
@@ -191,18 +173,10 @@
     <t>Используется ли программный формат расходов в других странах?</t>
   </si>
   <si>
-    <t xml:space="preserve">Программный бюджет в том или ином виде используется во многих странах. Например, в Австралии, Бразилии, Великобритании, Индии, Испании, Канаде, Нидерландах, Новой Зеландии, США, Франции, Швеции, Южной Корее.
-В каждой стране существуют свои особенности и принципы формирования государственных программ и других программных документов
-</t>
-  </si>
-  <si>
     <t>Программный бюджет используется,например, в Австралии, Бразилии, Великобритании, Индии, Испании, Канаде, Нидерландах, Новой Зеландии, США, Франции, Швеции, Южной Корее</t>
   </si>
   <si>
     <t>Каковы основные цели деятельности Минфина России на 5-10 лет?</t>
-  </si>
-  <si>
-    <t>Основными целями деятельности Минфина России являются обеспечение долгосрочной устойчивости и структурной трансформации экономики; улучшение качества администрирования доходов бюджетной системы и условий ведения бизнеса; повышение эффективности управления бюджетными расходами; формирование надежных источников финансирования и развитие национального рынка заемного капитала; совершенствование межбюджетных отношений; формирование долгосрочных финансовых ресурсов для экономического роста; развитие системы бухгалтерского учета и аудита</t>
   </si>
   <si>
     <t>Основные цели деятельности Минфина России на ближайшие 5-10 лет:
@@ -227,9 +201,6 @@
     <t>Центральный аппарат, Минфин России, Сотрудник, Человек, Сколько, Работает</t>
   </si>
   <si>
-    <t>В центральном аппарате Минфина России работает приблизительно 1300 человек</t>
-  </si>
-  <si>
     <t>Информация о кадровой политике в Минфине России на официальном сайте Министерства финансов Российской Федерации</t>
   </si>
   <si>
@@ -245,9 +216,6 @@
     <t>Консолидированный бюджет Российской Федерации включает в себя федеральный бюджет и консолидированные бюджеты субъектов РФ без учета бюджетов государственных и территориальных внебюджетных фондов</t>
   </si>
   <si>
-    <t>В соответствии со статьей 6 Бюджетного кодекса Российской Федерации консолидированный бюджет - это свод бюджетов бюджетной системы Российской Федерации на соответствующей территории (за исключением бюджетов государственных внебюджетных фондов) без учета межбюджетных трансфертов между этими бюджетами</t>
-  </si>
-  <si>
     <t>Консолидированный, бюджет, Российская Федерация, РФ, включает, состоит</t>
   </si>
   <si>
@@ -263,53 +231,750 @@
     <t>Суверенный фонд, предназначен, объем, Резервный фонд, Фонд национального благосостояния, РФ, ФНБ, цель создания</t>
   </si>
   <si>
-    <t xml:space="preserve">В Российской Федерации существует два суверенных фонда: Резервный фонд и Фонд национального благосостояния. 
-Резервный фонд обеспечивает выполнение государством расходных обязательств в случае снижения поступлений нефтегазовых доходов в федеральный бюджет. Объем фонда на 1 января 2017 года составил 972 млрд. руб. 
-Фонд национального благосостояния обеспечивает софинансирование добровольных пенсионных накоплений граждан и покрытие дефицита бюджета Пенсионного фонда. Объем фонда на 1 января 2017 года составил 4359 млрд. руб.
+    <t>Для чего предназначены суверенные фонды? Каковы объемы суверенных фондов?</t>
+  </si>
+  <si>
+    <t>Информация о движении средств и результатах управления средствами суверенных фондов на официальном сайте Министерства финансов Российской Федерации</t>
+  </si>
+  <si>
+    <t>https://www.minfin.ru/ru/statistics/fonds/#</t>
+  </si>
+  <si>
+    <t>Динамика изменения объема суверенных фондов РФ</t>
+  </si>
+  <si>
+    <t>Dinamika_Suverennie fondi.pdf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Государственная программа </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">– это документ стратегического планирования, содержащий комплекс планируемых мероприятий, взаимоувязанных по задачам, срокам осуществления, исполнителям и ресурсам, и инструментамам государственной политики, обеспечивающих в рамках реализации ключевых государственных функций достижение приоритетов и целей государственной политики в сфере социально-экономического развития и обеспечения национальной безопасности.
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В Российской Федерации существует два суверенных фонда: Резервный фонд и Фонд национального благосостояния.
-Резервный фонд призван обеспечивать выполнение государством своих расходных обязательств в случае снижения поступлений нефтегазовых доходов в федеральный бюджет. Резервный фонд способствует стабильности экономического развития страны, уменьшая инфляционное давление и снижая зависимость национальной экономики от колебаний поступлений от экспорта невозобновляемых природных ресурсов.
-Объем фонда на 1 января 2017 года составил 972 млрд. руб.
-Фонд национального благосостояния призван стать частью устойчивого механизма пенсионного обеспечения граждан на длительную перспективу. Целями Фонда национального благосостояния являются обеспечение софинансирования добровольных пенсионных накоплений граждан и обеспечение сбалансированности (покрытие дефицита) бюджета Пенсионного фонда. Объем фонда на 1 января 2017 года составил 4359 млрд. руб.
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Государственная программа включает в себя</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> подпрограммы, направленные на достижение целей и решения задач государственной программы.
 </t>
-  </si>
-  <si>
-    <t>Для чего предназначены суверенные фонды? Каковы объемы суверенных фондов?</t>
-  </si>
-  <si>
-    <t>Информация о движении средств и результатах управления средствами суверенных фондов на официальном сайте Министерства финансов Российской Федерации</t>
-  </si>
-  <si>
-    <t>https://www.minfin.ru/ru/statistics/fonds/#</t>
-  </si>
-  <si>
-    <t>Динамика изменения объема суверенных фондов РФ</t>
-  </si>
-  <si>
-    <t>Dinamika_Suverennie fondi.pdf</t>
-  </si>
-  <si>
-    <t>Актуальная информация по исполнению государственных программ содержится на следующих информационных ресурсах в сети «Интернет»:
-- «Портал государственных программ»;
-- Раздел «Государственные программы» на сайте Правительства России;
-- Раздел «Расходы» - «Государственные программы» на Едином портале бюджетной системы «Электронный бюджет»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Государственная программа – это документ стратегического планирования, содержащий комплекс планируемых мероприятий, взаимоувязанных по задачам, срокам осуществления, исполнителям и ресурсам, и инструментамам государственной политики, обеспечивающих в рамках реализации ключевых государственных функций достижение приоритетов и целей государственной политики в сфере социально-экономического развития и обеспечения национальной безопасности.
-Государственная программа включает в себя подпрограммы, направленные на достижение целей и решения задач государственной программы.
-Государственная программа включает: паспорт государственной программы, паспорта подпрограмм, паспорта федеральных целевых программ, текстовую часть, приложения.
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Государственная программа включает:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> паспорт государственной программы, паспорта подпрограмм, паспорта федеральных целевых программ, текстовую часть, приложения.
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Государственные программы субъекта Российской Федерации, муниципальные программы утверждаются соответственно высшим исполнительным органом государственной власти субъекта Российской Федерации, местной администрацией муниципального образования.
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Государственные программы </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">разрабатываются федеральными органами исполнительной власти </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">для достижения </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">приоритетов и целей социально-экономического развития и </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>обеспечения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> национальной безопасности Российской Федерации, определенных в стратегии социально-экономического развития, отраслевых документах стратегического планирования, стратегии пространственного развития и основных направлениях деятельности Правительства Российской Федерации</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В настоящий момент </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>предусмотрено к утверждению</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> государственные программы, из них </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">государственных программ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>утверждено</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Государственные программы субъекта Российской Федерации, муниципальные программы </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">утверждаются </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">соответственно высшим исполнительным органом государственной власти субъекта Российской Федерации, местной администрацией муниципального образования.
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Государственная программа включает федеральные целевые программы (в случае их наличия), реализуемые в соответствующей сфере социально - экономического развития или обеспечения национальной безопасности Российской Федерации, и подпрограммы, представляющие собой взаимоувязанные по целям, срокам и ресурсам мероприятия, выделенные исходя из масштаба и сложности задач, решаемых в рамках государственной программы, содержащие ведомственные целевые программы и основные мероприятия.
-Федеральная целевая программа может быть включена в состав только одной государственной программы. Допускается аналитическое (справочное) отражение в государственной программе: частей федеральных целевых программ; федеральных целевых программ, реализация которых направлена на достижение целей иных государственных программ.
-Государственная программа содержит:
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Государственные программы </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>с наибольшим объемом бюджетных ассигнований</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> «</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Социальная поддержка граждан</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">» (в 2017 году - 1330,4 млрд. рублей);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> «</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Управление государственными финансами и регулирование финансовых рынков</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">» (в 2017 году - 1217,1 млрд. рублей);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> «</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Развитие федеративных отношений и создание условий для эффективного и ответственного управления региональными и муниципальными финансами</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>» (в 2017 году - 739,7 млрд. рублей)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Программный бюджет </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">в том или ином виде используется во многих странах. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Например,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в Австралии, Бразилии, Великобритании, Индии, Испании, Канаде, Нидерландах, Новой Зеландии, США, Франции, Швеции, Южной Корее.
+В каждой стране существуют свои особенности и принципы формирования государственных программ и других программных документов
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В соответствии со статьей 6 Бюджетного кодекса Российской Федерации </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">консолидированный бюджет </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>- это свод бюджетов бюджетной системы Российской Федерации на соответствующей территории (за исключением бюджетов государственных внебюджетных фондов) без учета межбюджетных трансфертов между этими бюджетами</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Согласно пункту 2 статьи 28 Федерального закона от 28 июня 2014 г. N 172-ФЗ «О стратегическом планировании в Российской Федерации» государственные программы Российской Федерации </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>разрабатываются</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> на период, определяемый Правительством Российской Федерации</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В центральном аппарате Минфина России работает приблизительно </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> человек</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Актуальная информация </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>по исполнению государственных программ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> содержится на следующих информационных ресурсах в сети «Интернет»:
+- «</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Портал государственных программ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">»;
+- Раздел «Государственные программы» </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>на сайте Правительства России</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">;
+- Раздел «Расходы» - «Государственные программы» </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>на Едином портале бюджетной системы «Электронный бюджет»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Государственная программа включает</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">федеральные целевые программы </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(в случае их наличия), реализуемые в соответствующей сфере социально - экономического развития или обеспечения национальной безопасности Российской Федерации, и </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>подпрограммы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, представляющие собой взаимоувязанные по целям, срокам и ресурсам мероприятия, выделенные исходя из масштаба и сложности задач, решаемых в рамках государственной программы, содержащие ведомственные целевые программы и основные мероприятия.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Федеральная целевая программа </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">может быть </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>включена</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в состав только одной государственной программы. Допускается аналитическое (справочное) отражение в государственной программе: частей федеральных целевых программ; федеральных целевых программ, реализация которых направлена на достижение целей иных государственных программ.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Государственная программа содержит</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:
 - паспорт госпрограммы, паспорта подпрограмм, паспорта федеральных целевых программ (в случае наличия);
 - приоритеты и цели государственной политики и общие требования к политике субъектов Российской Федерации в соответствующей сфере;
 - перечень и характеристики основных мероприятий государственной программы и ведомственных целевых программ;
@@ -318,15 +983,294 @@
 - информацию по финансовому обеспечению государственной программы;
 - информацию по финансовому обеспечению государственной программы (в случае наличия);
 - правила предоставления субсидий из федерального бюджета бюджетам субъектов Российской Федерации в рамках государственной программы (в случае наличия);
-- план реализации государственной программы на очередной финансовый год и плановый период.
+- план реализации государственной программы на очередной финансовый год и плановый период
 </t>
+    </r>
+  </si>
+  <si>
+    <t>В настоящий момент предусмотрено к утверждению сорок три государственные программы, из них сорок государственных программ утверждено</t>
+  </si>
+  <si>
+    <t>Наибольший объем бюджетных ассигнований предусмотрен в две тысячи семнадцатом году в рамках государственной программы «Социальная поддержка граждан» - одна тысяча триста тридцать миллиардов рублей</t>
+  </si>
+  <si>
+    <t>В центральном аппарате Минфина России работает приблизительно одно тысяча триста человек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В Российской Федерации существует два суверенных фонда: Резервный фонд и Фонд национального благосостояния. 
+Резервный фонд обеспечивает выполнение государством расходных обязательств в случае снижения поступлений нефтегазовых доходов в федеральный бюджет. Объем фонда на первое января две тысячи семнадцатого года составил девятьсот семьдесят два миллиарда рублей. 
+Фонд национального благосостояния обеспечивает софинансирование добровольных пенсионных накоплений граждан и покрытие дефицита бюджета Пенсионного фонда. Объем фонда на первое января две тысячи семнадцатого года составил четыре тысячи триста пятьдесят девять миллиардов рублей.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В Российской Федерации существует два </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>суверенных фонда</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Резервный фонд и Фонд национального благосостояния.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Резервный фонд</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> призван обеспечивать выполнение государством своих расходных обязательств в случае снижения поступлений нефтегазовых доходов в федеральный бюджет. Резервный фонд способствует стабильности экономического развития страны, уменьшая инфляционное давление и снижая зависимость национальной экономики от колебаний поступлений от экспорта невозобновляемых природных ресурсов.
+Объем фонда на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> января </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> года составил</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 972 млрд. руб.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Фонд национального благосостояния </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">призван стать частью устойчивого механизма пенсионного обеспечения граждан на длительную перспективу. Целями Фонда национального благосостояния являются </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>обеспечение</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> софинансирования добровольных пенсионных накоплений граждан и </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>обеспечение</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> сбалансированности (покрытие дефицита) бюджета Пенсионного фонда. Объем фонда на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> января </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2017 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">года составил </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4359 млрд. руб.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Основными целями деятельности Минфина России являются: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>обеспечЕние</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> долгосрочной устойчивости и структурной трансформации экономики; улучшение качества администрирования доходов бюджетной системы и условий ведения бизнеса; повышение эффективности управления бюджетными расходами; формирование надежных источников финансирования и развитие национального рынка заемного капитала; совершенствование межбюджетных отношений; формирование долгосрочных финансовых ресурсов для экономического роста; развитие системы бухгалтерского учета и аудита</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +1296,55 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -383,7 +1376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -400,9 +1393,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -411,6 +1401,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -739,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -748,7 +1744,7 @@
     <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="48" style="3" customWidth="1"/>
-    <col min="4" max="4" width="101.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="101.85546875" style="7" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="78.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="68.5703125" style="3" customWidth="1"/>
@@ -771,7 +1767,7 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -799,7 +1795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="204.75">
+    <row r="2" spans="1:12" ht="173.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -809,253 +1805,253 @@
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>84</v>
+      <c r="D2" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="141.75">
+    <row r="3" spans="1:12" ht="94.5">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="94.5">
       <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="63">
+      <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="78.75">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="78.75">
       <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="405.75" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="145.5" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="409.5">
-      <c r="A7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    <row r="9" spans="1:12" ht="161.25" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="107.25" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" ht="126">
-      <c r="A8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="141.75">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="C10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="126">
-      <c r="A10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="236.25">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="63">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>64</v>
+        <v>53</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="94.5">
       <c r="A13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="299.25">
+      <c r="A14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="J14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="315">
-      <c r="A14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/3_questions.xlsx
+++ b/data/minfin/3_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -66,9 +66,6 @@
     <t>Государственная программа – это документ стратегического планирования, содержащий комплекс планируемых мероприятий и инструментов государственной политики, обеспечивающих достижение приоритетов и целей государственной политики в сфере социально-экономического развития и обеспечения национальной безопасности</t>
   </si>
   <si>
-    <t>Что, Такое, Государственная программа, Госпрограмма</t>
-  </si>
-  <si>
     <t>3.2</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
   </si>
   <si>
     <t>На какой, срок, период, утверждаются, разрабатываются, Государственная программа, Госпрограмма</t>
-  </si>
-  <si>
-    <t>Структура, Государственная программа, Госпрограмма, что включают в себя</t>
   </si>
   <si>
     <t>Государственные программы Российской Федерации включают  в себя подпрограммы, содержащие, ведомственные целевые программы и основные мероприятия органов государственной власти Российской Федерации</t>
@@ -226,9 +220,6 @@
   </si>
   <si>
     <t>3.13</t>
-  </si>
-  <si>
-    <t>Суверенный фонд, предназначен, объем, Резервный фонд, Фонд национального благосостояния, РФ, ФНБ, цель создания</t>
   </si>
   <si>
     <t>Для чего предназначены суверенные фонды? Каковы объемы суверенных фондов?</t>
@@ -1265,12 +1256,21 @@
       <t xml:space="preserve"> долгосрочной устойчивости и структурной трансформации экономики; улучшение качества администрирования доходов бюджетной системы и условий ведения бизнеса; повышение эффективности управления бюджетными расходами; формирование надежных источников финансирования и развитие национального рынка заемного капитала; совершенствование межбюджетных отношений; формирование долгосрочных финансовых ресурсов для экономического роста; развитие системы бухгалтерского учета и аудита</t>
     </r>
   </si>
+  <si>
+    <t>Что, Такое, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Зачем, Для чего, Нужны, Суверенный фонд, предназначен, объем, Резервный фонд, Фонд национального благосостояния, ФНБ, цель создания</t>
+  </si>
+  <si>
+    <t>Какова, Структура, из чего состоят, Государственная программа, Госпрограмма, что включает, гос.программа, гос программа</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1349,6 +1349,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1376,7 +1383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1412,6 +1419,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1725,21 +1735,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
@@ -1757,7 +1767,7 @@
     <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1795,7 +1805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="173.25">
+    <row r="2" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1806,252 +1816,252 @@
         <v>14</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="94.5">
+    <row r="3" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="94.5">
+    <row r="4" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="405.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="63">
-      <c r="A5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="78.75">
-      <c r="A6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="405.75" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="145.5" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="161.25" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="D14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="107.25" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="236.25">
-      <c r="A11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="63">
-      <c r="A12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="94.5">
-      <c r="A13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="299.25">
-      <c r="A14" s="5" t="s">
+      <c r="E14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/3_questions.xlsx
+++ b/data/minfin/3_questions.xlsx
@@ -72,18 +72,12 @@
     <t>Государственные программы разрабатываются для достижения приоритетов и целей социально-экономического развития и обеспечения национальной безопасности Российской Федерации</t>
   </si>
   <si>
-    <t>Зачем, Для чего, Нужны, Необходимы, Государственная программа, Госпрограмма</t>
-  </si>
-  <si>
     <t>3.3</t>
   </si>
   <si>
     <t>Сколько всего государственных программ утверждено / предусмотрено к утверждению в настоящий момент?</t>
   </si>
   <si>
-    <t>Сколько, Государственная программа, Госпрограмма, Утверждено, Предусмотрено к утверждению</t>
-  </si>
-  <si>
     <t>Зачем нужны государственные программы?</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>Государственные программы Российской Федерации утверждаются постановлениями Правительства Российской Федерации</t>
   </si>
   <si>
-    <t>каким, акт, нормативным документом, утверждаются, Государственная программа, Госпрограмма</t>
-  </si>
-  <si>
     <t>3.5</t>
   </si>
   <si>
@@ -138,9 +129,6 @@
     <t>Где можно ознакомиться с актуальной информацией по исполнению государственных программ?</t>
   </si>
   <si>
-    <t>Где, На каких ресурсах, В сети Интернет, Актуальная информация, Исполнение, Государственная программа, Госпрограмма, Портал, Сайт</t>
-  </si>
-  <si>
     <t>Актуальная информация по исполнению государственных программ содержится в сети «Интернет» на информационном ресурсе «Портал государственных программ», на сайте Правительства России и на Едином портале бюджетной системы «Электронный бюджет»</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
   </si>
   <si>
     <t>В каких государственных программах предусмотрены самые большие объемы бюджетных ассигнований?</t>
-  </si>
-  <si>
-    <t>Государственная программа, Госпрограмма, самый, большой, наибольший, объем, бюджетные ассигнования</t>
   </si>
   <si>
     <t xml:space="preserve">Информация о государственной программе «Социальная поддержка граждан» на Портале государственных программ; Информация о государственной программе «Управление государственными финансами и регулирование финансовых рынков» на Портале государственных программ; Информация о государственной программе «Развитие федеративных отношений и создание условий для эффективного и ответственного управления региональными и муниципальными финансами» на Портале государственных программ
@@ -184,9 +169,6 @@
   </si>
   <si>
     <t>Сколько всего сотрудников в центральном аппарате Минфина России?</t>
-  </si>
-  <si>
-    <t>программный, бюджет, формат, расходов, в других, странах, используется, составляется, формирование, Государственная программа, Госпрограмма</t>
   </si>
   <si>
     <t>Цели, Основные, Приоритетные, Деятельность, Минфин России, 5 лет, 10 лет</t>
@@ -1264,6 +1246,24 @@
   </si>
   <si>
     <t>Какова, Структура, из чего состоят, Государственная программа, Госпрограмма, что включает, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Зачем, Для чего, Нужны, Необходимы, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Сколько, Государственная программа, Госпрограмма, Утверждено, Предусмотрено к утверждению, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>каким, акт, нормативным документом, утверждаются, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Где, На каких ресурсах, В сети Интернет, Актуальная информация, Исполнение, Государственная программа, Госпрограмма, Портал, Сайт, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Государственная программа, Госпрограмма, самый, большой, наибольший, объем, бюджетные ассигнования, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>программный, бюджет, формат, расходов, в других, странах, используется, составляется, формирование, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1422,6 +1422,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1745,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E10" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1816,10 +1819,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1828,240 +1831,240 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>64</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="405.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/3_questions.xlsx
+++ b/data/minfin/3_questions.xlsx
@@ -961,18 +961,48 @@
     </r>
   </si>
   <si>
-    <t>В настоящий момент предусмотрено к утверждению сорок три государственные программы, из них сорок государственных программ утверждено</t>
-  </si>
-  <si>
-    <t>Наибольший объем бюджетных ассигнований предусмотрен в две тысячи семнадцатом году в рамках государственной программы «Социальная поддержка граждан» - одна тысяча триста тридцать миллиардов рублей</t>
-  </si>
-  <si>
-    <t>В центральном аппарате Минфина России работает приблизительно одно тысяча триста человек</t>
+    <t>Что, Такое, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Зачем, Для чего, Нужны, Суверенный фонд, предназначен, объем, Резервный фонд, Фонд национального благосостояния, ФНБ, цель создания</t>
+  </si>
+  <si>
+    <t>Какова, Структура, из чего состоят, Государственная программа, Госпрограмма, что включает, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Зачем, Для чего, Нужны, Необходимы, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Сколько, Государственная программа, Госпрограмма, Утверждено, Предусмотрено к утверждению, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>каким, акт, нормативным документом, утверждаются, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Где, На каких ресурсах, В сети Интернет, Актуальная информация, Исполнение, Государственная программа, Госпрограмма, Портал, Сайт, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Государственная программа, Госпрограмма, самый, большой, наибольший, объем, бюджетные ассигнования, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>программный, бюджет, формат, расходов, в других, странах, используется, составляется, формирование, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>В настоящий момент предусмотрено к утверждению 43 государственные программы, из них 40 государственных программ утверждено</t>
+  </si>
+  <si>
+    <t>Наибольший объем бюджетных ассигнований предусмотрен в 2017 году в рамках государственной программы «Социальная поддержка граждан» - 1330 млрд. рублей</t>
+  </si>
+  <si>
+    <t>Основными целями деятельности Минфина России являются обеспечение долгосрочной устойчивости и структурной трансформации экономики; улучшение качества администрирования доходов бюджетной системы и условий ведения бизнеса; повышение эффективности управления бюджетными расходами; формирование надежных источников финансирования и развитие национального рынка заемного капитала; совершенствование межбюджетных отношений; формирование долгосрочных финансовых ресурсов для экономического роста; развитие системы бухгалтерского учета и аудита</t>
+  </si>
+  <si>
+    <t>В центральном аппарате Минфина России работает приблизительно 1300 человек</t>
   </si>
   <si>
     <t xml:space="preserve">В Российской Федерации существует два суверенных фонда: Резервный фонд и Фонд национального благосостояния. 
-Резервный фонд обеспечивает выполнение государством расходных обязательств в случае снижения поступлений нефтегазовых доходов в федеральный бюджет. Объем фонда на первое января две тысячи семнадцатого года составил девятьсот семьдесят два миллиарда рублей. 
-Фонд национального благосостояния обеспечивает софинансирование добровольных пенсионных накоплений граждан и покрытие дефицита бюджета Пенсионного фонда. Объем фонда на первое января две тысячи семнадцатого года составил четыре тысячи триста пятьдесят девять миллиардов рублей.
+Резервный фонд обеспечивает выполнение государством расходных обязательств в случае снижения поступлений нефтегазовых доходов в федеральный бюджет. Объем фонда на 1 января 2017 года составил 972 млрд. руб. 
+Фонд национального благосостояния обеспечивает софинансирование добровольных пенсионных накоплений граждан и покрытие дефицита бюджета Пенсионного фонда. Объем фонда на 1 января 2017 года составил 4359 млрд. руб.
 </t>
   </si>
   <si>
@@ -983,7 +1013,6 @@
       <rPr>
         <i/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -993,7 +1022,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1005,7 +1033,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1015,7 +1042,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1027,7 +1053,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1037,7 +1062,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1048,7 +1072,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1058,7 +1081,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1069,7 +1091,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1079,7 +1100,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1091,7 +1111,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1101,58 +1120,16 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">призван стать частью устойчивого механизма пенсионного обеспечения граждан на длительную перспективу. Целями Фонда национального благосостояния являются </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>обеспечение</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> софинансирования добровольных пенсионных накоплений граждан и </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>обеспечение</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> сбалансированности (покрытие дефицита) бюджета Пенсионного фонда. Объем фонда на </t>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">призван стать частью устойчивого механизма пенсионного обеспечения граждан на длительную перспективу. Целями Фонда национального благосостояния являются обеспечение софинансирования добровольных пенсионных накоплений граждан и обеспечение сбалансированности (покрытие дефицита) бюджета Пенсионного фонда. Объем фонда на </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1162,7 +1139,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1173,7 +1149,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1183,7 +1158,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1194,7 +1168,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1204,7 +1177,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1212,65 +1184,13 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Основными целями деятельности Минфина России являются: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>обеспечЕние</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> долгосрочной устойчивости и структурной трансформации экономики; улучшение качества администрирования доходов бюджетной системы и условий ведения бизнеса; повышение эффективности управления бюджетными расходами; формирование надежных источников финансирования и развитие национального рынка заемного капитала; совершенствование межбюджетных отношений; формирование долгосрочных финансовых ресурсов для экономического роста; развитие системы бухгалтерского учета и аудита</t>
-    </r>
-  </si>
-  <si>
-    <t>Что, Такое, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>Зачем, Для чего, Нужны, Суверенный фонд, предназначен, объем, Резервный фонд, Фонд национального благосостояния, ФНБ, цель создания</t>
-  </si>
-  <si>
-    <t>Какова, Структура, из чего состоят, Государственная программа, Госпрограмма, что включает, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>Зачем, Для чего, Нужны, Необходимы, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>Сколько, Государственная программа, Госпрограмма, Утверждено, Предусмотрено к утверждению, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>каким, акт, нормативным документом, утверждаются, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>Где, На каких ресурсах, В сети Интернет, Актуальная информация, Исполнение, Государственная программа, Госпрограмма, Портал, Сайт, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>Государственная программа, Госпрограмма, самый, большой, наибольший, объем, бюджетные ассигнования, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>программный, бюджет, формат, расходов, в других, странах, используется, составляется, формирование, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1343,32 +1263,32 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1383,7 +1303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1415,10 +1335,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1748,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E2:E10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1758,7 +1675,7 @@
     <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="48" style="3" customWidth="1"/>
     <col min="4" max="4" width="101.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="12" customWidth="1"/>
     <col min="6" max="6" width="78.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="68.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -1783,7 +1700,7 @@
       <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1821,8 +1738,8 @@
       <c r="D2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>80</v>
+      <c r="E2" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1839,8 +1756,8 @@
       <c r="D3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>83</v>
+      <c r="E3" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1851,14 +1768,14 @@
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>74</v>
+      <c r="C4" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>84</v>
+      <c r="E4" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
@@ -1874,8 +1791,8 @@
       <c r="D5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>85</v>
+      <c r="E5" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
@@ -1891,7 +1808,7 @@
       <c r="D6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1908,8 +1825,8 @@
       <c r="D7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>82</v>
+      <c r="E7" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1925,8 +1842,8 @@
       <c r="D8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>86</v>
+      <c r="E8" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>37</v>
@@ -1942,14 +1859,14 @@
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>75</v>
+      <c r="C9" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>87</v>
+      <c r="E9" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>40</v>
@@ -1971,8 +1888,8 @@
       <c r="D10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>88</v>
+      <c r="E10" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
@@ -1982,13 +1899,13 @@
       <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>79</v>
+      <c r="C11" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1999,13 +1916,13 @@
       <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>76</v>
+      <c r="C12" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="12" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -2028,7 +1945,7 @@
       <c r="D13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="12" t="s">
         <v>54</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -2038,21 +1955,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>81</v>
+      <c r="C14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>59</v>

--- a/data/minfin/3_questions.xlsx
+++ b/data/minfin/3_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -961,48 +961,12 @@
     </r>
   </si>
   <si>
-    <t>Что, Такое, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>Зачем, Для чего, Нужны, Суверенный фонд, предназначен, объем, Резервный фонд, Фонд национального благосостояния, ФНБ, цель создания</t>
-  </si>
-  <si>
-    <t>Какова, Структура, из чего состоят, Государственная программа, Госпрограмма, что включает, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>Зачем, Для чего, Нужны, Необходимы, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>Сколько, Государственная программа, Госпрограмма, Утверждено, Предусмотрено к утверждению, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>каким, акт, нормативным документом, утверждаются, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>Где, На каких ресурсах, В сети Интернет, Актуальная информация, Исполнение, Государственная программа, Госпрограмма, Портал, Сайт, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>Государственная программа, Госпрограмма, самый, большой, наибольший, объем, бюджетные ассигнования, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>программный, бюджет, формат, расходов, в других, странах, используется, составляется, формирование, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>В настоящий момент предусмотрено к утверждению 43 государственные программы, из них 40 государственных программ утверждено</t>
-  </si>
-  <si>
-    <t>Наибольший объем бюджетных ассигнований предусмотрен в 2017 году в рамках государственной программы «Социальная поддержка граждан» - 1330 млрд. рублей</t>
-  </si>
-  <si>
-    <t>Основными целями деятельности Минфина России являются обеспечение долгосрочной устойчивости и структурной трансформации экономики; улучшение качества администрирования доходов бюджетной системы и условий ведения бизнеса; повышение эффективности управления бюджетными расходами; формирование надежных источников финансирования и развитие национального рынка заемного капитала; совершенствование межбюджетных отношений; формирование долгосрочных финансовых ресурсов для экономического роста; развитие системы бухгалтерского учета и аудита</t>
-  </si>
-  <si>
-    <t>В центральном аппарате Минфина России работает приблизительно 1300 человек</t>
+    <t>В настоящий момент предусмотрено к утверждению сорок три государственные программы, из них сорок государственных программ утверждено</t>
   </si>
   <si>
     <t xml:space="preserve">В Российской Федерации существует два суверенных фонда: Резервный фонд и Фонд национального благосостояния. 
-Резервный фонд обеспечивает выполнение государством расходных обязательств в случае снижения поступлений нефтегазовых доходов в федеральный бюджет. Объем фонда на 1 января 2017 года составил 972 млрд. руб. 
-Фонд национального благосостояния обеспечивает софинансирование добровольных пенсионных накоплений граждан и покрытие дефицита бюджета Пенсионного фонда. Объем фонда на 1 января 2017 года составил 4359 млрд. руб.
+Резервный фонд обеспечивает выполнение государством расходных обязательств в случае снижения поступлений нефтегазовых доходов в федеральный бюджет. Объем фонда на первое января две тысячи семнадцатого года составил девятьсот семьдесят два миллиарда рублей. 
+Фонд национального благосостояния обеспечивает софинансирование добровольных пенсионных накоплений граждан и покрытие дефицита бюджета Пенсионного фонда. Объем фонда на первое января две тысячи семнадцатого года составил четыре тысячи триста пятьдесят девять миллиардов рублей.
 </t>
   </si>
   <si>
@@ -1013,6 +977,7 @@
       <rPr>
         <i/>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1022,6 +987,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1033,6 +999,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1042,6 +1009,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1053,6 +1021,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1062,6 +1031,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1072,6 +1042,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1081,6 +1052,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1091,6 +1063,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1100,6 +1073,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1111,6 +1085,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1120,16 +1095,58 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">призван стать частью устойчивого механизма пенсионного обеспечения граждан на длительную перспективу. Целями Фонда национального благосостояния являются обеспечение софинансирования добровольных пенсионных накоплений граждан и обеспечение сбалансированности (покрытие дефицита) бюджета Пенсионного фонда. Объем фонда на </t>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">призван стать частью устойчивого механизма пенсионного обеспечения граждан на длительную перспективу. Целями Фонда национального благосостояния являются </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>обеспечение</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> софинансирования добровольных пенсионных накоплений граждан и </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>обеспечение</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> сбалансированности (покрытие дефицита) бюджета Пенсионного фонда. Объем фонда на </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1139,6 +1156,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1149,6 +1167,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1158,6 +1177,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1168,6 +1188,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1177,20 +1198,123 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Основными целями деятельности Минфина России являются: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>обеспечЕние</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> долгосрочной устойчивости и структурной трансформации экономики; улучшение качества администрирования доходов бюджетной системы и условий ведения бизнеса; повышение эффективности управления бюджетными расходами; формирование надежных источников финансирования и развитие национального рынка заемного капитала; совершенствование межбюджетных отношений; формирование долгосрочных финансовых ресурсов для экономического роста; развитие системы бухгалтерского учета и аудита</t>
+    </r>
+  </si>
+  <si>
+    <t>Что, Такое, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Зачем, Для чего, Нужны, Необходимы, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Сколько, Государственная программа, Госпрограмма, Утверждено, Предусмотрено к утверждению, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>каким, акт, нормативным документом, утверждаются, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Какова, Структура, из чего состоят, Государственная программа, Госпрограмма, что включает, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Где, На каких ресурсах, В сети Интернет, Актуальная информация, Исполнение, Государственная программа, Госпрограмма, Портал, Сайт, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Государственная программа, Госпрограмма, самый, большой, наибольший, объем, бюджетные ассигнования, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>программный, бюджет, формат, расходов, в других, странах, используется, составляется, формирование, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Зачем, Для чего, Нужны, Суверенный фонд, предназначен, объем, Резервный фонд, Фонд национального благосостояния, ФНБ, цель создания</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Наибольший объем бюджетных ассигнований предусмотрен в две тысячи семнадцатом году в рамках государственной программы «Социальная поддержка граждан» - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>одна</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> тысяча триста тридцать миллиардов рублей</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В центральном аппарате Минфина России работает приблизительно </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>одна</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> тысяча триста человек</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1263,32 +1387,32 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1303,7 +1427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1335,7 +1459,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1655,27 +1782,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="48" style="3" customWidth="1"/>
     <col min="4" max="4" width="101.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="78.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="68.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -1687,7 +1814,7 @@
     <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1700,7 +1827,7 @@
       <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1725,7 +1852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="173.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1738,12 +1865,12 @@
       <c r="D2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>74</v>
+      <c r="E2" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="94.5">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1756,29 +1883,29 @@
       <c r="D3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>77</v>
+      <c r="E3" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="94.5">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>83</v>
+      <c r="C4" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>78</v>
+      <c r="E4" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="94.5">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1791,11 +1918,11 @@
       <c r="D5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>79</v>
+      <c r="E5" s="13" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="78.75">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1808,11 +1935,11 @@
       <c r="D6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="405.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="405.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -1825,11 +1952,11 @@
       <c r="D7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>76</v>
+      <c r="E7" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="145.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -1842,8 +1969,8 @@
       <c r="D8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>80</v>
+      <c r="E8" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>37</v>
@@ -1852,21 +1979,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="161.25" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>84</v>
+      <c r="C9" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>81</v>
+      <c r="E9" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>40</v>
@@ -1875,7 +2002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="107.25" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1888,41 +2015,41 @@
       <c r="D10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>82</v>
+      <c r="E10" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="315" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>85</v>
+      <c r="C11" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="63">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>86</v>
+      <c r="C12" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1932,7 +2059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="94.5">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -1945,7 +2072,7 @@
       <c r="D13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -1955,21 +2082,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="299.25">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>75</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>59</v>

--- a/data/minfin/3_questions.xlsx
+++ b/data/minfin/3_questions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Что такое государственная программа?</t>
-  </si>
-  <si>
-    <t>Государственная программа – это документ стратегического планирования, содержащий комплекс планируемых мероприятий и инструментов государственной политики, обеспечивающих достижение приоритетов и целей государственной политики в сфере социально-экономического развития и обеспечения национальной безопасности</t>
   </si>
   <si>
     <t>3.2</t>
@@ -1309,12 +1306,15 @@
       <t xml:space="preserve"> тысяча триста человек</t>
     </r>
   </si>
+  <si>
+    <t>Государственная программа – это документ стратегического планирования, содержащий комплекс план\+ируемых мероприятий и инструментов государственной политики, обеспечивающих достижение приоритетов и целей государственной политики в сфере социально-экономического развития и обеспечения национальной безопасности</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1782,21 +1782,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
@@ -1814,7 +1814,7 @@
     <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="173.25">
+    <row r="2" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1860,255 +1860,255 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="94.5">
+    <row r="3" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="94.5">
+    <row r="4" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="405.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="315" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="94.5">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="78.75">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="405.75" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="145.5" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="161.25" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="107.25" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="D14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="315" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="63">
-      <c r="A12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="94.5">
-      <c r="A13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="299.25">
-      <c r="A14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/3_questions.xlsx
+++ b/data/minfin/3_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -214,75 +214,6 @@
   </si>
   <si>
     <t>Dinamika_Suverennie fondi.pdf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Государственная программа </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">– это документ стратегического планирования, содержащий комплекс планируемых мероприятий, взаимоувязанных по задачам, срокам осуществления, исполнителям и ресурсам, и инструментамам государственной политики, обеспечивающих в рамках реализации ключевых государственных функций достижение приоритетов и целей государственной политики в сфере социально-экономического развития и обеспечения национальной безопасности.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Государственная программа включает в себя</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> подпрограммы, направленные на достижение целей и решения задач государственной программы.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Государственная программа включает:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> паспорт государственной программы, паспорта подпрограмм, паспорта федеральных целевых программ, текстовую часть, приложения.
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1205,6 +1136,155 @@
     </r>
   </si>
   <si>
+    <t>Что, Такое, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Зачем, Для чего, Нужны, Необходимы, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Сколько, Государственная программа, Госпрограмма, Утверждено, Предусмотрено к утверждению, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>каким, акт, нормативным документом, утверждаются, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Какова, Структура, из чего состоят, Государственная программа, Госпрограмма, что включает, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Где, На каких ресурсах, В сети Интернет, Актуальная информация, Исполнение, Государственная программа, Госпрограмма, Портал, Сайт, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Государственная программа, Госпрограмма, самый, большой, наибольший, объем, бюджетные ассигнования, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>программный, бюджет, формат, расходов, в других, странах, используется, составляется, формирование, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
+  </si>
+  <si>
+    <t>Зачем, Для чего, Нужны, Суверенный фонд, предназначен, объем, Резервный фонд, Фонд национального благосостояния, ФНБ, цель создания</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Наибольший объем бюджетных ассигнований предусмотрен в две тысячи семнадцатом году в рамках государственной программы «Социальная поддержка граждан» - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>одна</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> тысяча триста тридцать миллиардов рублей</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В центральном аппарате Минфина России работает приблизительно </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>одна</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> тысяча триста человек</t>
+    </r>
+  </si>
+  <si>
+    <t>Государственная программа – это документ стратегического планирования, содержащий комплекс план\+ируемых мероприятий и инструментов государственной политики, обеспечивающих достижение приоритетов и целей государственной политики в сфере социально-экономического развития и обеспечения национальной безопасности</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Государственная программа </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">– это документ стратегического планирования, содержащий комплекс планируемых мероприятий, взаимоувязанных по задачам, срокам осуществления, исполнителям и ресурсам, и инструментам государственной политики, обеспечивающих в рамках реализации ключевых государственных функций достижение приоритетов и целей государственной политики в сфере социально-экономического развития и обеспечения национальной безопасности.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Государственная программа включает в себя</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> подпрограммы, направленные на достижение целей и решение задач государственной программы.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Государственная программа включает:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> паспорт государственной программы, паспорта подпрограмм, паспорта федеральных целевых программ, текстовую часть, приложения.
+</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Основными целями деятельности Минфина России являются: </t>
     </r>
@@ -1216,7 +1296,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>обеспечЕние</t>
+      <t>обесп\+ечЕние</t>
     </r>
     <r>
       <rPr>
@@ -1228,93 +1308,13 @@
       </rPr>
       <t xml:space="preserve"> долгосрочной устойчивости и структурной трансформации экономики; улучшение качества администрирования доходов бюджетной системы и условий ведения бизнеса; повышение эффективности управления бюджетными расходами; формирование надежных источников финансирования и развитие национального рынка заемного капитала; совершенствование межбюджетных отношений; формирование долгосрочных финансовых ресурсов для экономического роста; развитие системы бухгалтерского учета и аудита</t>
     </r>
-  </si>
-  <si>
-    <t>Что, Такое, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>Зачем, Для чего, Нужны, Необходимы, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>Сколько, Государственная программа, Госпрограмма, Утверждено, Предусмотрено к утверждению, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>каким, акт, нормативным документом, утверждаются, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>Какова, Структура, из чего состоят, Государственная программа, Госпрограмма, что включает, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>Где, На каких ресурсах, В сети Интернет, Актуальная информация, Исполнение, Государственная программа, Госпрограмма, Портал, Сайт, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>Государственная программа, Госпрограмма, самый, большой, наибольший, объем, бюджетные ассигнования, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>программный, бюджет, формат, расходов, в других, странах, используется, составляется, формирование, Государственная программа, Госпрограмма, гос.программа, гос программа</t>
-  </si>
-  <si>
-    <t>Зачем, Для чего, Нужны, Суверенный фонд, предназначен, объем, Резервный фонд, Фонд национального благосостояния, ФНБ, цель создания</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Наибольший объем бюджетных ассигнований предусмотрен в две тысячи семнадцатом году в рамках государственной программы «Социальная поддержка граждан» - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>одна</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> тысяча триста тридцать миллиардов рублей</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">В центральном аппарате Минфина России работает приблизительно </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>одна</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> тысяча триста человек</t>
-    </r>
-  </si>
-  <si>
-    <t>Государственная программа – это документ стратегического планирования, содержащий комплекс план\+ируемых мероприятий и инструментов государственной политики, обеспечивающих достижение приоритетов и целей государственной политики в сфере социально-экономического развития и обеспечения национальной безопасности</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1782,21 +1782,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
@@ -1814,7 +1814,7 @@
     <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="173.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1860,17 +1860,17 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="94.5">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1881,14 +1881,14 @@
         <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="94.5">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1896,16 +1896,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="94.5">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1916,13 +1916,13 @@
         <v>21</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="78.75">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1933,13 +1933,13 @@
         <v>24</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="405.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="405.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1950,13 +1950,13 @@
         <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="145.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1967,10 +1967,10 @@
         <v>35</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>36</v>
@@ -1979,7 +1979,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="161.25" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1987,13 +1987,13 @@
         <v>38</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>39</v>
@@ -2002,7 +2002,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="107.25" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
@@ -2013,13 +2013,13 @@
         <v>42</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="315" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="315" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>44</v>
@@ -2036,7 +2036,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="63">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
@@ -2044,10 +2044,10 @@
         <v>45</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>47</v>
@@ -2059,7 +2059,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="94.5">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>53</v>
@@ -2082,7 +2082,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="299.25">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
@@ -2090,13 +2090,13 @@
         <v>57</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="E14" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>58</v>
